--- a/code/caocao2/近期待完成.xlsx
+++ b/code/caocao2/近期待完成.xlsx
@@ -1,82 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView windowWidth="25200" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="美术" sheetId="1" r:id="rId1"/>
     <sheet name="策划" sheetId="2" r:id="rId2"/>
     <sheet name="程序" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成路径</t>
   </si>
   <si>
     <t>2014.12.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英雄光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小兵光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>更换刀光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>碉堡更换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>何太后骨骼加入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,8 +89,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -106,16 +114,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,69 +171,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -355,8 +368,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -392,48 +405,138 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -452,55 +555,55 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/code/caocao2/近期待完成.xlsx
+++ b/code/caocao2/近期待完成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12780"/>
+    <workbookView windowWidth="27780" windowHeight="13650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="美术" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>日期</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>何太后骨骼加入</t>
+  </si>
+  <si>
+    <t>音箱碉堡替换</t>
+  </si>
+  <si>
+    <t>音箱的碰撞盒未完成</t>
   </si>
 </sst>
 </file>
@@ -54,20 +60,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -93,19 +94,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -426,11 +427,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -456,7 +457,7 @@
   <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -530,13 +531,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -601,6 +602,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/code/caocao2/近期待完成.xlsx
+++ b/code/caocao2/近期待完成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27780" windowHeight="13650" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="美术" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>日期</t>
   </si>
@@ -29,6 +29,372 @@
   </si>
   <si>
     <t>完成路径</t>
+  </si>
+  <si>
+    <t>角色投影</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/touying</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>角色设定-曹操</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/bingzhong/00曹操</t>
+  </si>
+  <si>
+    <t>角色设定-曹家村-曹冲</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/bingzhong/01曹冲</t>
+  </si>
+  <si>
+    <t>角色设定-曹家村-蒋干</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/bingzhong/02蒋干</t>
+  </si>
+  <si>
+    <t>角色设定-曹家村-曹洪</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/bingzhong/03曹洪</t>
+  </si>
+  <si>
+    <t>角色设定-曹家村-蔡文姬</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/bingzhong/04蔡文姬</t>
+  </si>
+  <si>
+    <t>角色设定-曹家村-祢衡</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/bingzhong/05祢衡</t>
+  </si>
+  <si>
+    <t>角色设定-曹家村-王双</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/bingzhong/06王双</t>
+  </si>
+  <si>
+    <t>角色设定-曹家村-甄姬</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/甄姬.psd</t>
+  </si>
+  <si>
+    <t>角色设定-广场之乱-何太后</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/bingzhong/07何太后</t>
+  </si>
+  <si>
+    <t>角色设定-广场之乱-张让</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/角色/action/zhangrang</t>
+  </si>
+  <si>
+    <t>角色设定-广场之乱-张让(变脸)</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/commonrole</t>
+  </si>
+  <si>
+    <t>角色设定-黄巾军-廖化</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/蔡夫人</t>
+  </si>
+  <si>
+    <t>角色设定-黄巾军-周仓</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/周仓</t>
+  </si>
+  <si>
+    <t>角色设定-黄巾军-近攻兵</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/黄巾近攻兵</t>
+  </si>
+  <si>
+    <t>角色设定-黄巾军-远程兵</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/黄巾远程兵</t>
+  </si>
+  <si>
+    <t>角色设定-黄巾军-盾兵</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/黄巾盾兵</t>
+  </si>
+  <si>
+    <t>角色设定-黄巾军-裴元绍</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/裴元绍</t>
+  </si>
+  <si>
+    <t>角色设定-潘凤</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/潘凤</t>
+  </si>
+  <si>
+    <t>角色设定-蔡夫人</t>
+  </si>
+  <si>
+    <t>角色设定-董白</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/董白</t>
+  </si>
+  <si>
+    <t>角色设定-曹性</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/曹性</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t>角色动作-曹操</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/角色/action/caocao</t>
+  </si>
+  <si>
+    <t>角色动作-曹冲</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/角色/action/caochong</t>
+  </si>
+  <si>
+    <t>角色动作-蒋干</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/角色/action/jianggan</t>
+  </si>
+  <si>
+    <t>角色动作-何太后</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/角色/action/hetaihou</t>
+  </si>
+  <si>
+    <t>角色动作-十常侍张让</t>
+  </si>
+  <si>
+    <t>角色动作-其余十常侍（变装）</t>
+  </si>
+  <si>
+    <t>角色动作-黄巾进攻兵</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/角色/action/huangjin01</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>战斗面板相关</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/UI/战斗ui/战斗面板</t>
+  </si>
+  <si>
+    <t>战场ui相关</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/UI/战斗ui/战场ui相关</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>林间小道</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/场景/Woods_road</t>
+  </si>
+  <si>
+    <t>曹家村广场</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/场景/曹家村广场场景</t>
+  </si>
+  <si>
+    <t>三用机</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/物件/三用机</t>
+  </si>
+  <si>
+    <t>黄巾军碉堡</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/物件/黄巾碉堡</t>
+  </si>
+  <si>
+    <t>曹家村拖拉机1级</t>
+  </si>
+  <si>
+    <t>物件</t>
+  </si>
+  <si>
+    <t>战斗掉落-金币</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-金币.png</t>
+  </si>
+  <si>
+    <t>战斗掉落-元宝</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-元宝.png</t>
+  </si>
+  <si>
+    <t>战斗掉落-钻石</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-钻石.png</t>
+  </si>
+  <si>
+    <t>战斗掉落-汽油</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-汽油.png</t>
+  </si>
+  <si>
+    <t>战斗掉落-通用指纹</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-通用指纹.png</t>
+  </si>
+  <si>
+    <t>战斗掉落-指定指纹</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-指定指纹.png</t>
+  </si>
+  <si>
+    <t>战斗掉落-宝箱</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-宝箱.png</t>
+  </si>
+  <si>
+    <t>战斗掉落-回血爱心</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-回血爱心.png</t>
+  </si>
+  <si>
+    <t>战斗掉落-能量</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/战场掉落物件/战场掉落-能量.png</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>步枪</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/wuqi/武器资源/步枪.png</t>
+  </si>
+  <si>
+    <t>机枪</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/wuqi/武器资源/机枪.png</t>
+  </si>
+  <si>
+    <t>火枪</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/wuqi/武器资源/火枪.png</t>
+  </si>
+  <si>
+    <t>沙枪</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/wuqi/武器资源/沙枪.png</t>
+  </si>
+  <si>
+    <t>火箭筒</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/物件/wuqi/武器资源/火箭筒.png</t>
+  </si>
+  <si>
+    <t>曹冲子弹</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/物件/80001.png</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>通用特效</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/完成/commoneffect</t>
+  </si>
+  <si>
+    <t>最后一次更新时间2014-12-20</t>
+  </si>
+  <si>
+    <t>武将技能汇总</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/策划案/我爸是村长-技能汇总.xls</t>
+  </si>
+  <si>
+    <t>武将与关卡设定</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/策划案/武将与关卡设定.xls</t>
+  </si>
+  <si>
+    <t>思维导图</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/策划案/曹家村(1).mmap</t>
+  </si>
+  <si>
+    <t>出兵规律</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/策划案/出兵规律.docx</t>
+  </si>
+  <si>
+    <t>花边剧情</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/策划案/花边剧情.doc</t>
+  </si>
+  <si>
+    <t>战斗ui说明</t>
+  </si>
+  <si>
+    <t>https://github.com/DarkPandaF/caocao/trunk/document/策划案/战斗ui说明.docx</t>
   </si>
   <si>
     <t>2014.12.9</t>
@@ -65,10 +431,31 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -90,7 +477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -109,19 +496,44 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -455,21 +867,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="56.25" customWidth="1"/>
+    <col min="4" max="4" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +895,644 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" customFormat="1" spans="2:4">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:4">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:4">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="2:4">
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="2:4">
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="2:4">
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="2:3">
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:4">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="2:4">
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="2:4">
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="2:4">
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="2:4">
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="2:4">
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="2:4">
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="2:4">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="2:4">
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:4">
+      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="2:4">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="2:4">
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="2:4">
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="2:4">
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="2:4">
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="4:4">
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" customFormat="1" spans="4:4">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" customFormat="1" spans="4:4">
+      <c r="D65" s="4"/>
+    </row>
+    <row r="68" customFormat="1" spans="1:4">
+      <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A35:A36"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D29" r:id="rId1" display="https://github.com/DarkPandaF/caocao/trunk/document/完成/角色/action/hetaihou"/>
+    <hyperlink ref="D62" r:id="rId2" display="https://github.com/DarkPandaF/caocao/trunk/document/完成/物件/80001.png"/>
+    <hyperlink ref="D19" r:id="rId3" display="https://github.com/DarkPandaF/caocao/trunk/document/role/dibing/裴元绍"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
@@ -493,21 +1542,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,6 +1568,82 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:4">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:4">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:4">
+      <c r="A5" s="1">
+        <v>41976</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:4">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:4">
+      <c r="A7" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +1658,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -561,10 +1686,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -572,7 +1697,7 @@
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -580,7 +1705,7 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -588,7 +1713,7 @@
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -596,7 +1721,7 @@
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -604,13 +1729,13 @@
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
